--- a/data/trans_camb/P1424_2016_2023-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1424_2016_2023-Provincia-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.847125275599968</v>
+        <v>-3.925761519456706</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.4023624093296</v>
+        <v>-12.29507505066482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.17355897846525</v>
+        <v>-6.815863055300849</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1314556855218741</v>
+        <v>0.002245454267839295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.568749981209005</v>
+        <v>-4.651175278435711</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.913131839868714</v>
+        <v>-2.930496093450812</v>
       </c>
     </row>
     <row r="7">
@@ -633,10 +633,10 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="n">
-        <v>-0.9058439330693533</v>
+        <v>-0.9013049881777387</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9061513222006938</v>
+        <v>-0.9047294433144581</v>
       </c>
     </row>
     <row r="9">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>-0.6156921550037112</v>
+        <v>-0.6224191943064743</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.6172548293852671</v>
+        <v>-0.6431420976304882</v>
       </c>
     </row>
     <row r="10">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3742609677133116</v>
+        <v>-0.540991755889855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5856375270663556</v>
+        <v>0.8064819641430574</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.042595928749328</v>
+        <v>0.8108188743604762</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.894692252015629</v>
+        <v>3.877544038609487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.998450428170118</v>
+        <v>7.304265367150683</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.737785471299371</v>
+        <v>4.661820631290681</v>
       </c>
     </row>
     <row r="13">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1919102054580517</v>
+        <v>-0.2067151681270257</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06557702638966455</v>
+        <v>0.08173002109180107</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1563719635406484</v>
+        <v>0.1633218964812482</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.130633717930152</v>
+        <v>3.176889272928512</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.385110083834037</v>
+        <v>1.390481835068465</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.308369549734253</v>
+        <v>1.365614561490817</v>
       </c>
     </row>
     <row r="16">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.697659572988764</v>
+        <v>3.584121347273283</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.650115716867877</v>
+        <v>2.642584077156091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.219424348841519</v>
+        <v>4.2998531629229</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.27503886175779</v>
+        <v>9.952292424629455</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.242042873403742</v>
+        <v>9.14534339839129</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.924935703042483</v>
+        <v>8.904101276502917</v>
       </c>
     </row>
     <row r="19">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>1.189395572059751</v>
+        <v>1.056064946694401</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.383877565981283</v>
+        <v>0.3793055525175371</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.004175265994088</v>
+        <v>1.056588628296326</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>23.97691858261193</v>
+        <v>21.6737073582251</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.272929365209369</v>
+        <v>3.350554749295147</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.631677765413409</v>
+        <v>4.626806778578206</v>
       </c>
     </row>
     <row r="22">
@@ -881,10 +881,10 @@
         <v>2.714730888717431</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.036016665567252</v>
+        <v>4.036016665567253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.44000511305585</v>
+        <v>3.440005113055849</v>
       </c>
     </row>
     <row r="23">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.147297353732138</v>
+        <v>-0.07080048500318116</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.278022638431948</v>
+        <v>0.9923669305953118</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.690973570870927</v>
+        <v>1.402240300750409</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.870633781824517</v>
+        <v>6.038102220871087</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.109746239247975</v>
+        <v>6.911522230649322</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.831325472447438</v>
+        <v>5.579338992401775</v>
       </c>
     </row>
     <row r="25">
@@ -935,7 +935,7 @@
         <v>1.155100971019172</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.192971092760945</v>
+        <v>1.192971092760944</v>
       </c>
     </row>
     <row r="26">
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08562110388777826</v>
+        <v>-0.1769319078066654</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2239244482238763</v>
+        <v>0.1257281144519615</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4002480590006871</v>
+        <v>0.3536937432158536</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.520914768625409</v>
+        <v>4.917172063802684</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.331407072840161</v>
+        <v>3.486524322516914</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.945374265154238</v>
+        <v>2.878214191925427</v>
       </c>
     </row>
     <row r="28">
@@ -987,10 +987,10 @@
         <v>-2.149330363837545</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-2.214916779406792</v>
+        <v>-2.214916779406793</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.092368592134927</v>
+        <v>-2.092368592134928</v>
       </c>
     </row>
     <row r="29">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.75303139482413</v>
+        <v>-5.195456598704532</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.821245274620837</v>
+        <v>-6.810081834599635</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.984343672526391</v>
+        <v>-4.650554870570376</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.221538546886299</v>
+        <v>-0.3910312488350769</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.29862819798277</v>
+        <v>1.750717799173535</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3864451204462855</v>
+        <v>0.1549898544339932</v>
       </c>
     </row>
     <row r="31">
@@ -1038,10 +1038,10 @@
         <v>-0.779493873019541</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.2603975290067045</v>
+        <v>-0.2603975290067047</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3683175359674178</v>
+        <v>-0.368317535967418</v>
       </c>
     </row>
     <row r="32">
@@ -1053,10 +1053,10 @@
       </c>
       <c r="C32" s="6" t="inlineStr"/>
       <c r="D32" s="6" t="n">
-        <v>-0.5912251580443918</v>
+        <v>-0.6020918418802655</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.632484995610078</v>
+        <v>-0.6301721150973929</v>
       </c>
     </row>
     <row r="33">
@@ -1068,10 +1068,10 @@
       </c>
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="n">
-        <v>0.4182922807451013</v>
+        <v>0.325167482241305</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1734271018154581</v>
+        <v>0.1044544148445629</v>
       </c>
     </row>
     <row r="34">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.695277774927149</v>
+        <v>3.854500869031797</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3.631152283912134</v>
+        <v>3.74300640405081</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5.069369597489019</v>
+        <v>4.809055875998911</v>
       </c>
     </row>
     <row r="36">
@@ -1120,13 +1120,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.349195901405</v>
+        <v>10.83066168407351</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.87102612013568</v>
+        <v>12.56078481324704</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.14504707231374</v>
+        <v>10.04083295461994</v>
       </c>
     </row>
     <row r="37">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.9136864415858231</v>
+        <v>0.917777660402155</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4398024857823375</v>
+        <v>0.483694436470045</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.9021777512585081</v>
+        <v>0.9321108405733559</v>
       </c>
     </row>
     <row r="39">
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>19.99470029797484</v>
+        <v>21.55047698139365</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3.538460780063246</v>
+        <v>3.968601692232848</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.014837559994901</v>
+        <v>4.375520606936481</v>
       </c>
     </row>
     <row r="40">
@@ -1195,10 +1195,10 @@
         <v>4.417581644549534</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>6.100172254761094</v>
+        <v>6.100172254761091</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5.324861459936287</v>
+        <v>5.324861459936284</v>
       </c>
     </row>
     <row r="41">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.554038843000245</v>
+        <v>2.481445145952076</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.343546968334833</v>
+        <v>3.053592261334647</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.425044468494459</v>
+        <v>3.574153634993253</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.73634118581079</v>
+        <v>6.621080345627808</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.047823321146288</v>
+        <v>9.223729347422353</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.321610758379523</v>
+        <v>7.372886708096978</v>
       </c>
     </row>
     <row r="43">
@@ -1246,7 +1246,7 @@
         <v>4.071276615906111</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.8779585531802577</v>
+        <v>0.8779585531802573</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>1.301239304827146</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>1.269185241315583</v>
+        <v>1.242197182076541</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3692829458604647</v>
+        <v>0.3336238652236856</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.6710540089376857</v>
+        <v>0.6907745647733645</v>
       </c>
     </row>
     <row r="45">
@@ -1277,13 +1277,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>11.29041591006225</v>
+        <v>11.34509986636102</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.638509638013679</v>
+        <v>1.649648935438358</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.199785557136129</v>
+        <v>2.294467375309678</v>
       </c>
     </row>
     <row r="46">
@@ -1301,7 +1301,7 @@
         <v>0.3790156351107261</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-0.02452729562616857</v>
+        <v>-0.02452729562616718</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>0.1496426649601396</v>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.338040307747926</v>
+        <v>-1.209999871887245</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.667533065868446</v>
+        <v>-2.598394888051594</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.248588943392965</v>
+        <v>-1.586596614430517</v>
       </c>
     </row>
     <row r="48">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.169301488802888</v>
+        <v>2.060948810740177</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.221956533406127</v>
+        <v>2.297604910546319</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.703818658419332</v>
+        <v>1.650471174296473</v>
       </c>
     </row>
     <row r="49">
@@ -1352,7 +1352,7 @@
         <v>0.1512874484721651</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.003413652612193593</v>
+        <v>-0.0034136526121934</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.03044892861278706</v>
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4072294486574319</v>
+        <v>-0.3940895845363874</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3020169293726958</v>
+        <v>-0.2940828407945038</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2343010366963839</v>
+        <v>-0.273290856355938</v>
       </c>
     </row>
     <row r="51">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.353600780179823</v>
+        <v>1.194573676370557</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3756650360952328</v>
+        <v>0.4071010027399541</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4164746222038574</v>
+        <v>0.3944155519251201</v>
       </c>
     </row>
     <row r="52">
@@ -1407,7 +1407,7 @@
         <v>2.378463178011994</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>2.618157573927547</v>
+        <v>2.618157573927549</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>2.516340247418676</v>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.470276334871456</v>
+        <v>1.470048317992025</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1.515003837805597</v>
+        <v>1.505458565279558</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.778108056225016</v>
+        <v>1.814941635963453</v>
       </c>
     </row>
     <row r="54">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.208626652828511</v>
+        <v>3.19298848412223</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.851096537197539</v>
+        <v>3.80284214534584</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.311325872938584</v>
+        <v>3.192901510153345</v>
       </c>
     </row>
     <row r="55">
@@ -1458,7 +1458,7 @@
         <v>1.248265612522242</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>0.3994824427258368</v>
+        <v>0.3994824427258371</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.5879365764441523</v>
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.6368374766978752</v>
+        <v>0.6382567748381212</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2148567423070805</v>
+        <v>0.2026391375301642</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.371048557709372</v>
+        <v>0.3922249626662954</v>
       </c>
     </row>
     <row r="57">
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.999856261061634</v>
+        <v>2.03157413121154</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6590919526337117</v>
+        <v>0.6328625836994934</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.8161785464469916</v>
+        <v>0.8193667018896966</v>
       </c>
     </row>
     <row r="58">
